--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3452,28 +3452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.2930644766694</v>
+        <v>480.9510012949927</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.060151059196</v>
+        <v>658.0583780324915</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.6958138353259</v>
+        <v>595.2542100238041</v>
       </c>
       <c r="AD2" t="n">
-        <v>439293.0644766694</v>
+        <v>480951.0012949927</v>
       </c>
       <c r="AE2" t="n">
-        <v>601060.151059196</v>
+        <v>658058.3780324915</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.602869955551235e-06</v>
+        <v>4.40028080437847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.784722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>543695.8138353259</v>
+        <v>595254.2100238041</v>
       </c>
     </row>
     <row r="3">
@@ -3558,28 +3558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.4973433034334</v>
+        <v>193.2410603665743</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.0184751533469</v>
+        <v>264.4009439873309</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.4932031387901</v>
+        <v>239.1668889823128</v>
       </c>
       <c r="AD3" t="n">
-        <v>172497.3433034334</v>
+        <v>193241.0603665743</v>
       </c>
       <c r="AE3" t="n">
-        <v>236018.4751533469</v>
+        <v>264400.9439873309</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.745620426750459e-06</v>
+        <v>8.022706791079006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.269444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>213493.2031387901</v>
+        <v>239166.8889823128</v>
       </c>
     </row>
     <row r="4">
@@ -3664,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.973834245526</v>
+        <v>154.8028026546874</v>
       </c>
       <c r="AB4" t="n">
-        <v>183.3089105230721</v>
+        <v>211.8080240097053</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.8141653784733</v>
+        <v>191.5933634727083</v>
       </c>
       <c r="AD4" t="n">
-        <v>133973.834245526</v>
+        <v>154802.8026546874</v>
       </c>
       <c r="AE4" t="n">
-        <v>183308.9105230721</v>
+        <v>211808.0240097053</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.509617173596205e-06</v>
+        <v>9.314281198237959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.677777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>165814.1653784733</v>
+        <v>191593.3634727083</v>
       </c>
     </row>
     <row r="5">
@@ -3770,28 +3770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.4266603665943</v>
+        <v>143.0850365751635</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.5095577965675</v>
+        <v>195.7752595083539</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.5226807016505</v>
+        <v>177.0907435132345</v>
       </c>
       <c r="AD5" t="n">
-        <v>122426.6603665943</v>
+        <v>143085.0365751635</v>
       </c>
       <c r="AE5" t="n">
-        <v>167509.5577965676</v>
+        <v>195775.2595083539</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.916926495191265e-06</v>
+        <v>1.000285781553561e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.425</v>
       </c>
       <c r="AH5" t="n">
-        <v>151522.6807016505</v>
+        <v>177090.7435132345</v>
       </c>
     </row>
     <row r="6">
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.1629984058799</v>
+        <v>126.5775721190116</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.9393391686594</v>
+        <v>173.1890183815243</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.7703917112097</v>
+        <v>156.6601015395538</v>
       </c>
       <c r="AD6" t="n">
-        <v>116162.9984058799</v>
+        <v>126577.5721190116</v>
       </c>
       <c r="AE6" t="n">
-        <v>158939.3391686594</v>
+        <v>173189.0183815243</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.151216885764927e-06</v>
+        <v>1.039893734539952e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.294444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>143770.3917112097</v>
+        <v>156660.1015395538</v>
       </c>
     </row>
     <row r="7">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.4446857547389</v>
+        <v>121.8592594678707</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.4835356421084</v>
+        <v>166.7332148549733</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.9307210124536</v>
+        <v>150.8204308407976</v>
       </c>
       <c r="AD7" t="n">
-        <v>111444.6857547389</v>
+        <v>121859.2594678707</v>
       </c>
       <c r="AE7" t="n">
-        <v>152483.5356421084</v>
+        <v>166733.2148549733</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.332842998009143e-06</v>
+        <v>1.070598529974607e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="AH7" t="n">
-        <v>137930.7210124536</v>
+        <v>150820.4308407976</v>
       </c>
     </row>
     <row r="8">
@@ -4088,28 +4088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.988737975717</v>
+        <v>118.4033116888487</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.7549554251974</v>
+        <v>162.0046346380624</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.6534298548391</v>
+        <v>146.5431396831831</v>
       </c>
       <c r="AD8" t="n">
-        <v>107988.737975717</v>
+        <v>118403.3116888487</v>
       </c>
       <c r="AE8" t="n">
-        <v>147754.9554251974</v>
+        <v>162004.6346380624</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.453927072838619e-06</v>
+        <v>1.091068393597711e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>133653.4298548391</v>
+        <v>146543.1396831831</v>
       </c>
     </row>
     <row r="9">
@@ -4194,28 +4194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.1298350110461</v>
+        <v>115.5444087241778</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.8432782630394</v>
+        <v>158.0929574759043</v>
       </c>
       <c r="AC9" t="n">
-        <v>130.1150776709628</v>
+        <v>143.0047874993068</v>
       </c>
       <c r="AD9" t="n">
-        <v>105129.8350110461</v>
+        <v>115544.4087241778</v>
       </c>
       <c r="AE9" t="n">
-        <v>143843.2782630394</v>
+        <v>158092.9574759043</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.545104840029491e-06</v>
+        <v>1.106482447530771e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.095833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>130115.0776709628</v>
+        <v>143004.7874993068</v>
       </c>
     </row>
     <row r="10">
@@ -4300,28 +4300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>102.3146574787252</v>
+        <v>112.7292311918569</v>
       </c>
       <c r="AB10" t="n">
-        <v>139.9914281664524</v>
+        <v>154.2411073793174</v>
       </c>
       <c r="AC10" t="n">
-        <v>126.6308427414873</v>
+        <v>139.5205525698314</v>
       </c>
       <c r="AD10" t="n">
-        <v>102314.6574787252</v>
+        <v>112729.2311918569</v>
       </c>
       <c r="AE10" t="n">
-        <v>139991.4281664524</v>
+        <v>154241.1073793174</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.628988385845091e-06</v>
+        <v>1.120663377149185e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.056944444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>126630.8427414873</v>
+        <v>139520.5525698314</v>
       </c>
     </row>
     <row r="11">
@@ -4406,28 +4406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.9039739223801</v>
+        <v>111.3185476355118</v>
       </c>
       <c r="AB11" t="n">
-        <v>138.0612686896959</v>
+        <v>152.3109479025608</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.884894976196</v>
+        <v>137.77460480454</v>
       </c>
       <c r="AD11" t="n">
-        <v>100903.9739223801</v>
+        <v>111318.5476355118</v>
       </c>
       <c r="AE11" t="n">
-        <v>138061.2686896959</v>
+        <v>152310.9479025608</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.65247577867346e-06</v>
+        <v>1.124634037442342e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.045833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>124884.894976196</v>
+        <v>137774.60480454</v>
       </c>
     </row>
     <row r="12">
@@ -4512,28 +4512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>100.6593393840338</v>
+        <v>111.0739130971655</v>
       </c>
       <c r="AB12" t="n">
-        <v>137.7265489218164</v>
+        <v>151.9762281346814</v>
       </c>
       <c r="AC12" t="n">
-        <v>124.5821203931807</v>
+        <v>137.4718302215247</v>
       </c>
       <c r="AD12" t="n">
-        <v>100659.3393840338</v>
+        <v>111073.9130971655</v>
       </c>
       <c r="AE12" t="n">
-        <v>137726.5489218164</v>
+        <v>151976.2281346814</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.675379633791807e-06</v>
+        <v>1.128506047790326e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.034722222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>124582.1203931807</v>
+        <v>137471.8302215247</v>
       </c>
     </row>
   </sheetData>
@@ -4809,28 +4809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.9138094236668</v>
+        <v>316.1002616092266</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.1998876805086</v>
+        <v>432.502323293073</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.8643194527709</v>
+        <v>391.2249085788046</v>
       </c>
       <c r="AD2" t="n">
-        <v>285913.8094236668</v>
+        <v>316100.2616092266</v>
       </c>
       <c r="AE2" t="n">
-        <v>391199.8876805086</v>
+        <v>432502.323293073</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.389559866274277e-06</v>
+        <v>5.870009295739392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>353864.3194527709</v>
+        <v>391224.9085788046</v>
       </c>
     </row>
     <row r="3">
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.0107191117855</v>
+        <v>154.1918547995055</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.3593780243338</v>
+        <v>210.9720982011287</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.8598163322462</v>
+        <v>190.8372172500728</v>
       </c>
       <c r="AD3" t="n">
-        <v>134010.7191117855</v>
+        <v>154191.8547995055</v>
       </c>
       <c r="AE3" t="n">
-        <v>183359.3780243338</v>
+        <v>210972.0982011287</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.354478363998724e-06</v>
+        <v>9.272837480535782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.913888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>165859.8163322462</v>
+        <v>190837.2172500728</v>
       </c>
     </row>
     <row r="4">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.8368578801982</v>
+        <v>134.847401367326</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.1248551962317</v>
+        <v>184.5041635981798</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.1290795424658</v>
+        <v>166.8953451776413</v>
       </c>
       <c r="AD4" t="n">
-        <v>114836.8578801982</v>
+        <v>134847.401367326</v>
       </c>
       <c r="AE4" t="n">
-        <v>157124.8551962317</v>
+        <v>184504.1635981798</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.048538284969134e-06</v>
+        <v>1.047480421032677e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.465277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>142129.0795424658</v>
+        <v>166895.3451776413</v>
       </c>
     </row>
     <row r="5">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.1701946384257</v>
+        <v>116.2608519908368</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.2667442026469</v>
+        <v>159.0732267605928</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.4026900191417</v>
+        <v>143.8915012592815</v>
       </c>
       <c r="AD5" t="n">
-        <v>106170.1946384257</v>
+        <v>116260.8519908368</v>
       </c>
       <c r="AE5" t="n">
-        <v>145266.7442026469</v>
+        <v>159073.2267605928</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.415262705051345e-06</v>
+        <v>1.110989426324959e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>131402.6900191417</v>
+        <v>143891.5012592815</v>
       </c>
     </row>
     <row r="6">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.8438803893808</v>
+        <v>110.9345377417919</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.9790460667067</v>
+        <v>151.7855286246526</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.8105195649447</v>
+        <v>137.2993308050846</v>
       </c>
       <c r="AD6" t="n">
-        <v>100843.8803893808</v>
+        <v>110934.5377417919</v>
       </c>
       <c r="AE6" t="n">
-        <v>137979.0460667067</v>
+        <v>151785.5286246526</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.64239038086358e-06</v>
+        <v>1.150323192977176e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.155555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>124810.5195649447</v>
+        <v>137299.3308050846</v>
       </c>
     </row>
     <row r="7">
@@ -5339,28 +5339,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.93233293452701</v>
+        <v>107.022990286938</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.6270942736838</v>
+        <v>146.4335768316296</v>
       </c>
       <c r="AC7" t="n">
-        <v>119.9693505395346</v>
+        <v>132.4581617796745</v>
       </c>
       <c r="AD7" t="n">
-        <v>96932.33293452702</v>
+        <v>107022.990286938</v>
       </c>
       <c r="AE7" t="n">
-        <v>132627.0942736838</v>
+        <v>146433.5768316296</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.777610578556445e-06</v>
+        <v>1.173740505216634e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.093055555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>119969.3505395346</v>
+        <v>132458.1617796745</v>
       </c>
     </row>
     <row r="8">
@@ -5445,28 +5445,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.25510167699967</v>
+        <v>104.3457590294107</v>
       </c>
       <c r="AB8" t="n">
-        <v>128.9639883560295</v>
+        <v>142.7704709139753</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.6558463094587</v>
+        <v>129.1446575495985</v>
       </c>
       <c r="AD8" t="n">
-        <v>94255.10167699968</v>
+        <v>104345.7590294107</v>
       </c>
       <c r="AE8" t="n">
-        <v>128963.9883560295</v>
+        <v>142770.4709139754</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.871630872264766e-06</v>
+        <v>1.190022855133133e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="AH8" t="n">
-        <v>116655.8463094587</v>
+        <v>129144.6575495985</v>
       </c>
     </row>
     <row r="9">
@@ -5551,28 +5551,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>93.89338633682236</v>
+        <v>103.9840436892334</v>
       </c>
       <c r="AB9" t="n">
-        <v>128.4690734698445</v>
+        <v>142.2755560277904</v>
       </c>
       <c r="AC9" t="n">
-        <v>116.2081654053937</v>
+        <v>128.6969766455335</v>
       </c>
       <c r="AD9" t="n">
-        <v>93893.38633682235</v>
+        <v>103984.0436892334</v>
       </c>
       <c r="AE9" t="n">
-        <v>128469.0734698446</v>
+        <v>142275.5560277904</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.894720928344016e-06</v>
+        <v>1.194021570281166e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.040277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>116208.1654053937</v>
+        <v>128696.9766455335</v>
       </c>
     </row>
   </sheetData>
@@ -5848,28 +5848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.0273370092628</v>
+        <v>121.2580682346933</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.9665477413354</v>
+        <v>165.9106384870551</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.5128982727327</v>
+        <v>150.0763600069401</v>
       </c>
       <c r="AD2" t="n">
-        <v>103027.3370092628</v>
+        <v>121258.0682346933</v>
       </c>
       <c r="AE2" t="n">
-        <v>140966.5477413354</v>
+        <v>165910.6384870551</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.909141982173501e-06</v>
+        <v>1.118136821687816e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>127512.8982727327</v>
+        <v>150076.3600069401</v>
       </c>
     </row>
     <row r="3">
@@ -5954,28 +5954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.29972458536074</v>
+        <v>87.41517970662703</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.1331375177016</v>
+        <v>119.6053053601099</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.9085012353423</v>
+        <v>108.1903428836726</v>
       </c>
       <c r="AD3" t="n">
-        <v>78299.72458536073</v>
+        <v>87415.17970662702</v>
       </c>
       <c r="AE3" t="n">
-        <v>107133.1375177016</v>
+        <v>119605.3053601099</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.309047861278896e-06</v>
+        <v>1.383029138549909e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>96908.50123534229</v>
+        <v>108190.3428836726</v>
       </c>
     </row>
     <row r="4">
@@ -6060,28 +6060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.87719400921796</v>
+        <v>85.99264913048427</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.1867684258043</v>
+        <v>117.6589362682125</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.14789087782881</v>
+        <v>106.4297325261591</v>
       </c>
       <c r="AD4" t="n">
-        <v>76877.19400921796</v>
+        <v>85992.64913048426</v>
       </c>
       <c r="AE4" t="n">
-        <v>105186.7684258043</v>
+        <v>117658.9362682125</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.422717591628486e-06</v>
+        <v>1.40453789758779e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.151388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>95147.89087782882</v>
+        <v>106429.7325261591</v>
       </c>
     </row>
   </sheetData>
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.9725057908665</v>
+        <v>169.0511082033828</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.1989987429709</v>
+        <v>231.3031842522976</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.6150943016037</v>
+        <v>209.2279329833831</v>
       </c>
       <c r="AD2" t="n">
-        <v>149972.5057908665</v>
+        <v>169051.1082033828</v>
       </c>
       <c r="AE2" t="n">
-        <v>205198.9987429709</v>
+        <v>231303.1842522976</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.894295593416748e-06</v>
+        <v>8.916343653636198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.572222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>185615.0943016037</v>
+        <v>209227.9329833831</v>
       </c>
     </row>
     <row r="3">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.60222817238743</v>
+        <v>115.4248975297399</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.1754303749303</v>
+        <v>157.9294369872126</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.5607928093638</v>
+        <v>142.8568731765533</v>
       </c>
       <c r="AD3" t="n">
-        <v>96602.22817238743</v>
+        <v>115424.8975297399</v>
       </c>
       <c r="AE3" t="n">
-        <v>132175.4303749303</v>
+        <v>157929.4369872126</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.527069979173126e-06</v>
+        <v>1.189090398706618e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.427777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>119560.7928093638</v>
+        <v>142856.8731765533</v>
       </c>
     </row>
     <row r="4">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.79537355299949</v>
+        <v>95.29209384052287</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.3890151199138</v>
+        <v>130.3828467830267</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.1855722734172</v>
+        <v>117.939290879564</v>
       </c>
       <c r="AD4" t="n">
-        <v>85795.37355299949</v>
+        <v>95292.09384052287</v>
       </c>
       <c r="AE4" t="n">
-        <v>117389.0151199137</v>
+        <v>130382.8467830267</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.108327994349151e-06</v>
+        <v>1.294982985613529e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.147222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>106185.5722734172</v>
+        <v>117939.290879564</v>
       </c>
     </row>
     <row r="5">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.62804218652782</v>
+        <v>92.12476247405118</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.0553326115113</v>
+        <v>126.0491642746243</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.2654903412537</v>
+        <v>114.0192089474005</v>
       </c>
       <c r="AD5" t="n">
-        <v>82628.04218652782</v>
+        <v>92124.76247405118</v>
       </c>
       <c r="AE5" t="n">
-        <v>113055.3326115113</v>
+        <v>126049.1642746243</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.27120267653955e-06</v>
+        <v>1.324655215481291e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.077777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>102265.4903412537</v>
+        <v>114019.2089474005</v>
       </c>
     </row>
     <row r="6">
@@ -6781,28 +6781,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.93764885495791</v>
+        <v>92.43436914248127</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.4789501141394</v>
+        <v>126.4727817772523</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.648678383982</v>
+        <v>114.4023969901288</v>
       </c>
       <c r="AD6" t="n">
-        <v>82937.64885495791</v>
+        <v>92434.36914248127</v>
       </c>
       <c r="AE6" t="n">
-        <v>113478.9501141394</v>
+        <v>126472.7817772523</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.270719368877263e-06</v>
+        <v>1.324567167321446e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.077777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>102648.678383982</v>
+        <v>114402.3969901288</v>
       </c>
     </row>
   </sheetData>
@@ -7078,28 +7078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.66254882860301</v>
+        <v>98.2678487627374</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3660578877528</v>
+        <v>134.4544059486404</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.832876222709</v>
+        <v>121.622266152882</v>
       </c>
       <c r="AD2" t="n">
-        <v>80662.548828603</v>
+        <v>98267.8487627374</v>
       </c>
       <c r="AE2" t="n">
-        <v>110366.0578877528</v>
+        <v>134454.4059486404</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.81766598725299e-06</v>
+        <v>1.336042867984635e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>99832.876222709</v>
+        <v>121622.266152882</v>
       </c>
     </row>
     <row r="3">
@@ -7184,28 +7184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.30666686575394</v>
+        <v>81.10940634137219</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.93317155069322</v>
+        <v>110.9774680506854</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.49112851149803</v>
+        <v>100.3859342578111</v>
       </c>
       <c r="AD3" t="n">
-        <v>72306.66686575394</v>
+        <v>81109.40634137219</v>
       </c>
       <c r="AE3" t="n">
-        <v>98933.17155069322</v>
+        <v>110977.4680506854</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.449919201483501e-06</v>
+        <v>1.459944126745684e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.261111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>89491.12851149803</v>
+        <v>100385.9342578111</v>
       </c>
     </row>
   </sheetData>
@@ -7481,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.4202735509259</v>
+        <v>343.0327338755457</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.4672012820907</v>
+        <v>469.3525200246698</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.6703315457124</v>
+        <v>424.5581742539137</v>
       </c>
       <c r="AD2" t="n">
-        <v>312420.2735509258</v>
+        <v>343032.7338755457</v>
       </c>
       <c r="AE2" t="n">
-        <v>427467.2012820907</v>
+        <v>469352.5200246698</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.193997743538428e-06</v>
+        <v>5.495213093882328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.504166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>386670.3315457124</v>
+        <v>424558.1742539137</v>
       </c>
     </row>
     <row r="3">
@@ -7587,28 +7587,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.089034384194</v>
+        <v>170.4454721450986</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.6759971363831</v>
+        <v>233.2110145123478</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.3827089886924</v>
+        <v>210.9536826010713</v>
       </c>
       <c r="AD3" t="n">
-        <v>140089.0343841939</v>
+        <v>170445.4721450986</v>
       </c>
       <c r="AE3" t="n">
-        <v>191675.9971363831</v>
+        <v>233211.0145123478</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.206024885504267e-06</v>
+        <v>8.956867980190577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.990277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>173382.7089886924</v>
+        <v>210953.6826010713</v>
       </c>
     </row>
     <row r="4">
@@ -7693,28 +7693,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.4792482757734</v>
+        <v>139.8306612558052</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.476778543264</v>
+        <v>191.322479623504</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.8747842402397</v>
+        <v>173.0629306910774</v>
       </c>
       <c r="AD4" t="n">
-        <v>119479.2482757734</v>
+        <v>139830.6612558052</v>
       </c>
       <c r="AE4" t="n">
-        <v>163476.778543264</v>
+        <v>191322.479623504</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.904020178119636e-06</v>
+        <v>1.015775576391172e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.518055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>147874.7842402397</v>
+        <v>173062.9306910773</v>
       </c>
     </row>
     <row r="5">
@@ -7799,28 +7799,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.9953128792385</v>
+        <v>130.1761336586783</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.5004397320312</v>
+        <v>178.1127290374243</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.136888992741</v>
+        <v>161.1139001609276</v>
       </c>
       <c r="AD5" t="n">
-        <v>109995.3128792385</v>
+        <v>130176.1336586782</v>
       </c>
       <c r="AE5" t="n">
-        <v>150500.4397320312</v>
+        <v>178112.7290374243</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.290332978810765e-06</v>
+        <v>1.082239967763611e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.302777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>136136.888992741</v>
+        <v>161113.9001609276</v>
       </c>
     </row>
     <row r="6">
@@ -7905,28 +7905,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.8368468710592</v>
+        <v>115.0126428696261</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.4423989641849</v>
+        <v>157.3653719738532</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.7524577297532</v>
+        <v>142.3466417363986</v>
       </c>
       <c r="AD6" t="n">
-        <v>104836.8468710592</v>
+        <v>115012.6428696261</v>
       </c>
       <c r="AE6" t="n">
-        <v>143442.3989641849</v>
+        <v>157365.3719738532</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.50689547799805e-06</v>
+        <v>1.119499138769144e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.191666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>129752.4577297533</v>
+        <v>142346.6417363986</v>
       </c>
     </row>
     <row r="7">
@@ -8011,28 +8011,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.690775659501</v>
+        <v>110.866571658068</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.7695614207814</v>
+        <v>151.6925344304497</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.6210278396128</v>
+        <v>137.2152118462582</v>
       </c>
       <c r="AD7" t="n">
-        <v>100690.775659501</v>
+        <v>110866.571658068</v>
       </c>
       <c r="AE7" t="n">
-        <v>137769.5614207814</v>
+        <v>151692.5344304497</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.664980120015288e-06</v>
+        <v>1.146697304344316e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>124621.0278396128</v>
+        <v>137215.2118462582</v>
       </c>
     </row>
     <row r="8">
@@ -8117,28 +8117,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.89551383931003</v>
+        <v>107.071309837877</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.5767167632641</v>
+        <v>146.4996897729324</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.9237809880041</v>
+        <v>132.5179649946495</v>
       </c>
       <c r="AD8" t="n">
-        <v>96895.51383931002</v>
+        <v>107071.309837877</v>
       </c>
       <c r="AE8" t="n">
-        <v>132576.7167632641</v>
+        <v>146499.6897729324</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.793751053578998e-06</v>
+        <v>1.168852101468462e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.056944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>119923.7809880041</v>
+        <v>132517.9649946495</v>
       </c>
     </row>
     <row r="9">
@@ -8223,28 +8223,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>95.47591874775389</v>
+        <v>105.6517147463209</v>
       </c>
       <c r="AB9" t="n">
-        <v>130.6343641308826</v>
+        <v>144.5573371405509</v>
       </c>
       <c r="AC9" t="n">
-        <v>118.1668037647475</v>
+        <v>130.7609877713928</v>
       </c>
       <c r="AD9" t="n">
-        <v>95475.91874775389</v>
+        <v>105651.7147463209</v>
       </c>
       <c r="AE9" t="n">
-        <v>130634.3641308826</v>
+        <v>144557.337140551</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.837721616259289e-06</v>
+        <v>1.176417154145e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.0375</v>
       </c>
       <c r="AH9" t="n">
-        <v>118166.8037647475</v>
+        <v>130760.9877713928</v>
       </c>
     </row>
     <row r="10">
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>95.62814528056117</v>
+        <v>105.8039412791282</v>
       </c>
       <c r="AB10" t="n">
-        <v>130.8426471888301</v>
+        <v>144.7656201984984</v>
       </c>
       <c r="AC10" t="n">
-        <v>118.3552085799716</v>
+        <v>130.9493925866169</v>
       </c>
       <c r="AD10" t="n">
-        <v>95628.14528056118</v>
+        <v>105803.9412791282</v>
       </c>
       <c r="AE10" t="n">
-        <v>130842.6471888301</v>
+        <v>144765.6201984984</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.833982622834094e-06</v>
+        <v>1.175773867352777e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.038888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>118355.2085799716</v>
+        <v>130949.3925866169</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.53859704920195</v>
+        <v>87.60295581445209</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.51402042595279</v>
+        <v>119.8622289149332</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.30285777480213</v>
+        <v>108.4227460150181</v>
       </c>
       <c r="AD2" t="n">
-        <v>70538.59704920196</v>
+        <v>87602.95581445209</v>
       </c>
       <c r="AE2" t="n">
-        <v>96514.0204259528</v>
+        <v>119862.2289149332</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.322519412938826e-06</v>
+        <v>1.467916452404765e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.394444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>87302.85777480213</v>
+        <v>108422.7460150181</v>
       </c>
     </row>
     <row r="3">
@@ -8732,28 +8732,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.11389307610972</v>
+        <v>87.17825184135982</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.93292171335133</v>
+        <v>119.2811302023318</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.77721830775401</v>
+        <v>107.89710654797</v>
       </c>
       <c r="AD3" t="n">
-        <v>70113.89307610971</v>
+        <v>87178.25184135983</v>
       </c>
       <c r="AE3" t="n">
-        <v>95932.92171335133</v>
+        <v>119281.1302023318</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.39232417378667e-06</v>
+        <v>1.481909936221779e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>86777.21830775401</v>
+        <v>107897.10654797</v>
       </c>
     </row>
   </sheetData>
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.769745973787</v>
+        <v>237.0419090061393</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.2797325954817</v>
+        <v>324.3311974530168</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.1484739057631</v>
+        <v>293.3774831698918</v>
       </c>
       <c r="AD2" t="n">
-        <v>207769.745973787</v>
+        <v>237041.9090061393</v>
       </c>
       <c r="AE2" t="n">
-        <v>284279.7325954817</v>
+        <v>324331.1974530168</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.087977748817334e-06</v>
+        <v>7.240112358108758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.283333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>257148.4739057632</v>
+        <v>293377.4831698918</v>
       </c>
     </row>
     <row r="3">
@@ -9135,28 +9135,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.9552747390973</v>
+        <v>134.5837782277269</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.2868783667604</v>
+        <v>184.1434627883483</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.2756394490002</v>
+        <v>166.5690691468533</v>
       </c>
       <c r="AD3" t="n">
-        <v>114955.2747390973</v>
+        <v>134583.7782277269</v>
       </c>
       <c r="AE3" t="n">
-        <v>157286.8783667604</v>
+        <v>184143.4627883483</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.888236634968758e-06</v>
+        <v>1.042850461713973e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.668055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>142275.6394490002</v>
+        <v>166569.0691468533</v>
       </c>
     </row>
     <row r="4">
@@ -9241,28 +9241,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.5161874425035</v>
+        <v>119.9740987305409</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.5306821199969</v>
+        <v>164.153854766738</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.404946844026</v>
+        <v>148.4872412592281</v>
       </c>
       <c r="AD4" t="n">
-        <v>100516.1874425035</v>
+        <v>119974.098730541</v>
       </c>
       <c r="AE4" t="n">
-        <v>137530.6821199969</v>
+        <v>164153.854766738</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.528542913529093e-06</v>
+        <v>1.156253461564461e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.308333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>124404.946844026</v>
+        <v>148487.2412592281</v>
       </c>
     </row>
     <row r="5">
@@ -9347,28 +9347,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.46085555121873</v>
+        <v>103.2751968040846</v>
       </c>
       <c r="AB5" t="n">
-        <v>127.8772657670705</v>
+        <v>141.3056804474128</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.6728389991648</v>
+        <v>127.8196646293179</v>
       </c>
       <c r="AD5" t="n">
-        <v>93460.85555121873</v>
+        <v>103275.1968040846</v>
       </c>
       <c r="AE5" t="n">
-        <v>127877.2657670705</v>
+        <v>141305.6804474128</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.864089525751825e-06</v>
+        <v>1.215681259931958e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.145833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>115672.8389991648</v>
+        <v>127819.6646293179</v>
       </c>
     </row>
     <row r="6">
@@ -9453,28 +9453,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.98190537843332</v>
+        <v>98.7962466312992</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.7489685433326</v>
+        <v>135.177383223675</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.1294178613394</v>
+        <v>122.2762434914925</v>
       </c>
       <c r="AD6" t="n">
-        <v>88981.90537843332</v>
+        <v>98796.2466312992</v>
       </c>
       <c r="AE6" t="n">
-        <v>121748.9685433326</v>
+        <v>135177.383223675</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.046167877425975e-06</v>
+        <v>1.247928688981235e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.065277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>110129.4178613394</v>
+        <v>122276.2434914925</v>
       </c>
     </row>
     <row r="7">
@@ -9559,28 +9559,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.10142912491006</v>
+        <v>97.91577037777591</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.5442620893919</v>
+        <v>133.9726767697342</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.0396869005462</v>
+        <v>121.1865125306993</v>
       </c>
       <c r="AD7" t="n">
-        <v>88101.42912491005</v>
+        <v>97915.77037777592</v>
       </c>
       <c r="AE7" t="n">
-        <v>120544.2620893919</v>
+        <v>133972.6767697342</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.092348296253663e-06</v>
+        <v>1.256107584307994e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.044444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>109039.6869005462</v>
+        <v>121186.5125306993</v>
       </c>
     </row>
   </sheetData>
@@ -9856,28 +9856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.5269524887155</v>
+        <v>280.5335275701955</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.7820288639994</v>
+        <v>383.838348687306</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.0673931269206</v>
+        <v>347.2053554090946</v>
       </c>
       <c r="AD2" t="n">
-        <v>250526.9524887155</v>
+        <v>280533.5275701955</v>
       </c>
       <c r="AE2" t="n">
-        <v>342782.0288639994</v>
+        <v>383838.348687306</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.609144376919213e-06</v>
+        <v>6.294032645731702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.862500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>310067.3931269206</v>
+        <v>347205.3554090946</v>
       </c>
     </row>
     <row r="3">
@@ -9962,28 +9962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.1271588591656</v>
+        <v>147.1315422468166</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.9409872054583</v>
+        <v>201.3118670875378</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.3403035143267</v>
+        <v>182.0989450357404</v>
       </c>
       <c r="AD3" t="n">
-        <v>127127.1588591656</v>
+        <v>147131.5422468166</v>
       </c>
       <c r="AE3" t="n">
-        <v>173940.9872054583</v>
+        <v>201311.8670875379</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.533919812039404e-06</v>
+        <v>9.650672934721751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.823611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>157340.3035143267</v>
+        <v>182098.9450357404</v>
       </c>
     </row>
     <row r="4">
@@ -10068,28 +10068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.0462896894247</v>
+        <v>129.8800808764835</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.570188452666</v>
+        <v>177.7076565598987</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.1999809933713</v>
+        <v>160.7474872321341</v>
       </c>
       <c r="AD4" t="n">
-        <v>110046.2896894247</v>
+        <v>129880.0808764835</v>
       </c>
       <c r="AE4" t="n">
-        <v>150570.188452666</v>
+        <v>177707.6565598987</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.199684308752657e-06</v>
+        <v>1.081170808296352e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4125</v>
       </c>
       <c r="AH4" t="n">
-        <v>136199.9809933713</v>
+        <v>160747.4872321341</v>
       </c>
     </row>
     <row r="5">
@@ -10174,28 +10174,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.1467780284433</v>
+        <v>112.1490592308199</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.7617280962583</v>
+        <v>153.4472905068465</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.4230649236063</v>
+        <v>138.8024964655398</v>
       </c>
       <c r="AD5" t="n">
-        <v>102146.7780284433</v>
+        <v>112149.0592308199</v>
       </c>
       <c r="AE5" t="n">
-        <v>139761.7280962583</v>
+        <v>153447.2905068464</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.550391373154008e-06</v>
+        <v>1.142331057981765e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.230555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>126423.0649236063</v>
+        <v>138802.4964655398</v>
       </c>
     </row>
     <row r="6">
@@ -10280,28 +10280,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.74356873583334</v>
+        <v>106.7458499382099</v>
       </c>
       <c r="AB6" t="n">
-        <v>132.3688187693425</v>
+        <v>146.0543811799307</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.7357244868357</v>
+        <v>132.1151560287691</v>
       </c>
       <c r="AD6" t="n">
-        <v>96743.56873583334</v>
+        <v>106745.8499382099</v>
       </c>
       <c r="AE6" t="n">
-        <v>132368.8187693425</v>
+        <v>146054.3811799307</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.780438144329526e-06</v>
+        <v>1.182449206124673e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.120833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>119735.7244868357</v>
+        <v>132115.1560287691</v>
       </c>
     </row>
     <row r="7">
@@ -10386,28 +10386,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.89834656569344</v>
+        <v>102.90062776807</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.1076161569301</v>
+        <v>140.7931785675183</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.976643667606</v>
+        <v>127.3560752095395</v>
       </c>
       <c r="AD7" t="n">
-        <v>92898.34656569344</v>
+        <v>102900.62776807</v>
       </c>
       <c r="AE7" t="n">
-        <v>127107.6161569301</v>
+        <v>140793.1785675183</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.923493719252581e-06</v>
+        <v>1.207396849241356e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>114976.643667606</v>
+        <v>127356.0752095395</v>
       </c>
     </row>
     <row r="8">
@@ -10492,28 +10492,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.74450875253429</v>
+        <v>101.7467899549108</v>
       </c>
       <c r="AB8" t="n">
-        <v>125.5288843572349</v>
+        <v>139.214446767823</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.5485838151092</v>
+        <v>125.9280153570426</v>
       </c>
       <c r="AD8" t="n">
-        <v>91744.50875253428</v>
+        <v>101746.7899549108</v>
       </c>
       <c r="AE8" t="n">
-        <v>125528.8843572349</v>
+        <v>139214.446767823</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.96203797958861e-06</v>
+        <v>1.214118631678545e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.038888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>113548.5838151092</v>
+        <v>125928.0153570426</v>
       </c>
     </row>
   </sheetData>
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.9554483447695</v>
+        <v>438.1345574395748</v>
       </c>
       <c r="AB2" t="n">
-        <v>543.1319568637298</v>
+        <v>599.4750306213197</v>
       </c>
       <c r="AC2" t="n">
-        <v>491.2962051911437</v>
+        <v>542.2619750673099</v>
       </c>
       <c r="AD2" t="n">
-        <v>396955.4483447695</v>
+        <v>438134.5574395748</v>
       </c>
       <c r="AE2" t="n">
-        <v>543131.9568637297</v>
+        <v>599475.0306213197</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.781021568494438e-06</v>
+        <v>4.72755235040172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.344444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>491296.2051911437</v>
+        <v>542261.9750673099</v>
       </c>
     </row>
     <row r="3">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.226111803759</v>
+        <v>185.8157111054368</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.0696554314033</v>
+        <v>254.241253544958</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.4938848078494</v>
+        <v>229.9768251365417</v>
       </c>
       <c r="AD3" t="n">
-        <v>165226.1118037589</v>
+        <v>185815.7111054368</v>
       </c>
       <c r="AE3" t="n">
-        <v>226069.6554314033</v>
+        <v>254241.253544958</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.885904327136008e-06</v>
+        <v>8.305713536085424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.180555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>204493.8848078494</v>
+        <v>229976.8251365417</v>
       </c>
     </row>
     <row r="4">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.81781860615</v>
+        <v>149.4926692538484</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.2542224579252</v>
+        <v>204.5424652241291</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.4327668409449</v>
+        <v>185.0212194203494</v>
       </c>
       <c r="AD4" t="n">
-        <v>128817.81860615</v>
+        <v>149492.6692538484</v>
       </c>
       <c r="AE4" t="n">
-        <v>176254.2224579251</v>
+        <v>204542.4652241291</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.643950339487363e-06</v>
+        <v>9.594341516538092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.618055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>159432.7668409449</v>
+        <v>185021.2194203493</v>
       </c>
     </row>
     <row r="5">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.9650792803857</v>
+        <v>139.469337727492</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.7732698402398</v>
+        <v>190.8281008315969</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.2384174204514</v>
+        <v>172.6157347172048</v>
       </c>
       <c r="AD5" t="n">
-        <v>118965.0792803857</v>
+        <v>139469.337727492</v>
       </c>
       <c r="AE5" t="n">
-        <v>162773.2698402398</v>
+        <v>190828.1008315969</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.009518212757096e-06</v>
+        <v>1.021578267258181e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.398611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>147238.4174204514</v>
+        <v>172615.7347172048</v>
       </c>
     </row>
     <row r="6">
@@ -11213,28 +11213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.2429246191544</v>
+        <v>122.5804394515546</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.5757212722143</v>
+        <v>167.7199651248646</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.9186699789147</v>
+        <v>151.7130070498435</v>
       </c>
       <c r="AD6" t="n">
-        <v>112242.9246191543</v>
+        <v>122580.4394515546</v>
       </c>
       <c r="AE6" t="n">
-        <v>153575.7212722143</v>
+        <v>167719.9651248646</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.276268060750375e-06</v>
+        <v>1.066923973495642e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.254166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>138918.6699789147</v>
+        <v>151713.0070498435</v>
       </c>
     </row>
     <row r="7">
@@ -11319,28 +11319,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.1001732380406</v>
+        <v>118.4376880704408</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.9074260672852</v>
+        <v>162.0516699199355</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.79134891284</v>
+        <v>146.5856859837687</v>
       </c>
       <c r="AD7" t="n">
-        <v>108100.1732380406</v>
+        <v>118437.6880704408</v>
       </c>
       <c r="AE7" t="n">
-        <v>147907.4260672852</v>
+        <v>162051.6699199355</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.431406478409091e-06</v>
+        <v>1.093296476296371e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.175</v>
       </c>
       <c r="AH7" t="n">
-        <v>133791.34891284</v>
+        <v>146585.6859837688</v>
       </c>
     </row>
     <row r="8">
@@ -11425,28 +11425,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.6616047086474</v>
+        <v>114.9991195410477</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.2026249064348</v>
+        <v>157.3468687590851</v>
       </c>
       <c r="AC8" t="n">
-        <v>129.5355673715497</v>
+        <v>142.3299044424785</v>
       </c>
       <c r="AD8" t="n">
-        <v>104661.6047086474</v>
+        <v>114999.1195410477</v>
       </c>
       <c r="AE8" t="n">
-        <v>143202.6249064348</v>
+        <v>157346.8687590851</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.549782237854842e-06</v>
+        <v>1.113419570850481e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.118055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>129535.5673715497</v>
+        <v>142329.9044424785</v>
       </c>
     </row>
     <row r="9">
@@ -11531,28 +11531,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.4347714132201</v>
+        <v>111.7722862456204</v>
       </c>
       <c r="AB9" t="n">
-        <v>138.7875292337954</v>
+        <v>152.9317730864458</v>
       </c>
       <c r="AC9" t="n">
-        <v>125.54184223328</v>
+        <v>138.3361793042088</v>
       </c>
       <c r="AD9" t="n">
-        <v>101434.7714132201</v>
+        <v>111772.2862456204</v>
       </c>
       <c r="AE9" t="n">
-        <v>138787.5292337954</v>
+        <v>152931.7730864458</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.655217541609628e-06</v>
+        <v>1.131342873701782e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.069444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>125541.84223328</v>
+        <v>138336.1793042088</v>
       </c>
     </row>
     <row r="10">
@@ -11637,28 +11637,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>99.57005701697859</v>
+        <v>109.9075718493788</v>
       </c>
       <c r="AB10" t="n">
-        <v>136.2361447314659</v>
+        <v>150.3803885841162</v>
       </c>
       <c r="AC10" t="n">
-        <v>123.2339582869613</v>
+        <v>136.0282953578901</v>
       </c>
       <c r="AD10" t="n">
-        <v>99570.05701697859</v>
+        <v>109907.5718493788</v>
       </c>
       <c r="AE10" t="n">
-        <v>136236.1447314659</v>
+        <v>150380.3885841162</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.701538490957964e-06</v>
+        <v>1.139217128092521e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.047222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>123233.9582869613</v>
+        <v>136028.2953578901</v>
       </c>
     </row>
     <row r="11">
@@ -11743,28 +11743,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>98.92542301445073</v>
+        <v>109.262937846851</v>
       </c>
       <c r="AB11" t="n">
-        <v>135.3541280499626</v>
+        <v>149.498371902613</v>
       </c>
       <c r="AC11" t="n">
-        <v>122.4361200396223</v>
+        <v>135.2304571105511</v>
       </c>
       <c r="AD11" t="n">
-        <v>98925.42301445073</v>
+        <v>109262.937846851</v>
       </c>
       <c r="AE11" t="n">
-        <v>135354.1280499626</v>
+        <v>149498.371902613</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.728154655504151e-06</v>
+        <v>1.143741699663073e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.036111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>122436.1200396223</v>
+        <v>135230.4571105511</v>
       </c>
     </row>
   </sheetData>
@@ -12040,28 +12040,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.5081387499714</v>
+        <v>193.2472369788613</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.087293024476</v>
+        <v>264.4093951007549</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.6052776902846</v>
+        <v>239.1745335333329</v>
       </c>
       <c r="AD2" t="n">
-        <v>164508.1387499713</v>
+        <v>193247.2369788613</v>
       </c>
       <c r="AE2" t="n">
-        <v>225087.293024476</v>
+        <v>264409.3951007549</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.607616241529045e-06</v>
+        <v>8.308622429519175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.795833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>203605.2776902846</v>
+        <v>239174.5335333329</v>
       </c>
     </row>
     <row r="3">
@@ -12146,28 +12146,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.3675333626476</v>
+        <v>121.4132338843631</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.0637752835544</v>
+        <v>166.1229429743586</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.6962851512729</v>
+        <v>150.2684024519466</v>
       </c>
       <c r="AD3" t="n">
-        <v>102367.5333626476</v>
+        <v>121413.2338843631</v>
       </c>
       <c r="AE3" t="n">
-        <v>140063.7752835544</v>
+        <v>166122.9429743586</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.314771228507194e-06</v>
+        <v>1.138702685209868e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.498611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>126696.2851512729</v>
+        <v>150268.4024519466</v>
       </c>
     </row>
     <row r="4">
@@ -12252,28 +12252,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.95179116293022</v>
+        <v>100.5600270326351</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.4442531789073</v>
+        <v>137.5906653812812</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.5674683141514</v>
+        <v>124.4592053870403</v>
       </c>
       <c r="AD4" t="n">
-        <v>90951.79116293023</v>
+        <v>100560.0270326351</v>
       </c>
       <c r="AE4" t="n">
-        <v>124444.2531789073</v>
+        <v>137590.6653812812</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.894004413446851e-06</v>
+        <v>1.243152135425244e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.205555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>112567.4683141514</v>
+        <v>124459.2053870403</v>
       </c>
     </row>
     <row r="5">
@@ -12358,28 +12358,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.13744546368955</v>
+        <v>94.74568133339446</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.4888088823816</v>
+        <v>129.6352210847555</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.3712804557474</v>
+        <v>117.2630175286363</v>
       </c>
       <c r="AD5" t="n">
-        <v>85137.44546368954</v>
+        <v>94745.68133339446</v>
       </c>
       <c r="AE5" t="n">
-        <v>116488.8088823816</v>
+        <v>129635.2210847555</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.175109889356868e-06</v>
+        <v>1.293842104810185e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.079166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>105371.2804557474</v>
+        <v>117263.0175286363</v>
       </c>
     </row>
     <row r="6">
@@ -12464,28 +12464,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.495750838577</v>
+        <v>94.10398670828191</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.6108139867342</v>
+        <v>128.7572261891081</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.5770801606667</v>
+        <v>116.4688172335556</v>
       </c>
       <c r="AD6" t="n">
-        <v>84495.75083857699</v>
+        <v>94103.98670828191</v>
       </c>
       <c r="AE6" t="n">
-        <v>115610.8139867342</v>
+        <v>128757.226189108</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.227131106460759e-06</v>
+        <v>1.303222761283799e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.056944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>104577.0801606667</v>
+        <v>116468.8172335556</v>
       </c>
     </row>
   </sheetData>
@@ -12761,28 +12761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.163940482439</v>
+        <v>142.5821301353707</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.8865810944546</v>
+        <v>195.0871607307635</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.6728442321611</v>
+        <v>176.4683159172243</v>
       </c>
       <c r="AD2" t="n">
-        <v>124163.940482439</v>
+        <v>142582.1301353707</v>
       </c>
       <c r="AE2" t="n">
-        <v>169886.5810944546</v>
+        <v>195087.1607307635</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.532401283206381e-06</v>
+        <v>1.032169240256984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.159722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>153672.8442321612</v>
+        <v>176468.3159172243</v>
       </c>
     </row>
     <row r="3">
@@ -12867,28 +12867,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.55598933526062</v>
+        <v>93.80779934328777</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.6932349554316</v>
+        <v>128.351969569459</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.6516349877902</v>
+        <v>116.1022377369045</v>
       </c>
       <c r="AD3" t="n">
-        <v>84555.98933526062</v>
+        <v>93807.79934328777</v>
       </c>
       <c r="AE3" t="n">
-        <v>115693.2349554316</v>
+        <v>128351.969569459</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.02632363061107e-06</v>
+        <v>1.310887398139767e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.275</v>
       </c>
       <c r="AH3" t="n">
-        <v>104651.6349877902</v>
+        <v>116102.2377369045</v>
       </c>
     </row>
     <row r="4">
@@ -12973,28 +12973,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.82508877700637</v>
+        <v>88.07689878503353</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.8519639821432</v>
+        <v>120.5106985961706</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.55872391089706</v>
+        <v>109.0093266600113</v>
       </c>
       <c r="AD4" t="n">
-        <v>78825.08877700637</v>
+        <v>88076.89878503354</v>
       </c>
       <c r="AE4" t="n">
-        <v>107851.9639821432</v>
+        <v>120510.6985961706</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.372502641562639e-06</v>
+        <v>1.375473336222644e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.122222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>97558.72391089705</v>
+        <v>109009.3266600113</v>
       </c>
     </row>
   </sheetData>
@@ -23387,28 +23387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.64204752240566</v>
+        <v>109.5756928153908</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.3886923819025</v>
+        <v>149.9262970483444</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.4217715651418</v>
+        <v>135.6175416809707</v>
       </c>
       <c r="AD2" t="n">
-        <v>91642.04752240566</v>
+        <v>109575.6928153908</v>
       </c>
       <c r="AE2" t="n">
-        <v>125388.6923819025</v>
+        <v>149926.2970483444</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.333286427973664e-06</v>
+        <v>1.217914466210306e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.759722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>113421.7715651418</v>
+        <v>135617.5416809707</v>
       </c>
     </row>
     <row r="3">
@@ -23493,28 +23493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.45931706185115</v>
+        <v>83.42622921689477</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8785225172161</v>
+        <v>114.1474473199854</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.15537931560294</v>
+        <v>103.253375154744</v>
       </c>
       <c r="AD3" t="n">
-        <v>74459.31706185115</v>
+        <v>83426.22921689478</v>
       </c>
       <c r="AE3" t="n">
-        <v>101878.5225172161</v>
+        <v>114147.4473199854</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.454404122897136e-06</v>
+        <v>1.433509556452974e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.194444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>92155.37931560294</v>
+        <v>103253.375154744</v>
       </c>
     </row>
   </sheetData>
@@ -23790,28 +23790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.0274357688959</v>
+        <v>83.83156926910092</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.70989466073716</v>
+        <v>114.7020514617546</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.95723102998431</v>
+        <v>103.7550486556147</v>
       </c>
       <c r="AD2" t="n">
-        <v>67027.4357688959</v>
+        <v>83831.56926910093</v>
       </c>
       <c r="AE2" t="n">
-        <v>91709.89466073716</v>
+        <v>114702.0514617546</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.228639282155402e-06</v>
+        <v>1.49097864777498e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.534722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>82957.23102998431</v>
+        <v>103755.0486556147</v>
       </c>
     </row>
   </sheetData>
@@ -24087,28 +24087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.8194032395053</v>
+        <v>257.550081150067</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.7125581948753</v>
+        <v>352.391383337025</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.9631491321718</v>
+        <v>318.7596442958575</v>
       </c>
       <c r="AD2" t="n">
-        <v>227819.4032395053</v>
+        <v>257550.081150067</v>
       </c>
       <c r="AE2" t="n">
-        <v>311712.5581948753</v>
+        <v>352391.383337025</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.843204368104077e-06</v>
+        <v>6.752358468894876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.561111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>281963.1491321718</v>
+        <v>318759.6442958575</v>
       </c>
     </row>
     <row r="3">
@@ -24193,28 +24193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.9234836625538</v>
+        <v>140.7439356029283</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.4528451146245</v>
+        <v>192.5720618760577</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6622577914571</v>
+        <v>174.1932545672475</v>
       </c>
       <c r="AD3" t="n">
-        <v>120923.4836625538</v>
+        <v>140743.9356029283</v>
       </c>
       <c r="AE3" t="n">
-        <v>165452.8451146245</v>
+        <v>192572.0618760577</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.707028466708581e-06</v>
+        <v>1.002702388642795e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.744444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>149662.2577914571</v>
+        <v>174193.2545672475</v>
       </c>
     </row>
     <row r="4">
@@ -24299,28 +24299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.2939966895698</v>
+        <v>124.9438564293521</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.0678915138975</v>
+        <v>170.9536965004837</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.3182541484057</v>
+        <v>154.6381156415451</v>
       </c>
       <c r="AD4" t="n">
-        <v>105293.9966895698</v>
+        <v>124943.8564293521</v>
       </c>
       <c r="AE4" t="n">
-        <v>144067.8915138975</v>
+        <v>170953.6965004838</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.362205797828698e-06</v>
+        <v>1.117814461191758e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.358333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>130318.2541484057</v>
+        <v>154638.1156415451</v>
       </c>
     </row>
     <row r="5">
@@ -24405,28 +24405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.85773711334383</v>
+        <v>107.7680525920821</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.8932730970914</v>
+        <v>147.4530039473563</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.1146870331297</v>
+        <v>133.3802962022515</v>
       </c>
       <c r="AD5" t="n">
-        <v>97857.73711334383</v>
+        <v>107768.0525920821</v>
       </c>
       <c r="AE5" t="n">
-        <v>133893.2730970914</v>
+        <v>147453.0039473563</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.699334386951332e-06</v>
+        <v>1.177046624403307e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.190277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>121114.6870331297</v>
+        <v>133380.2962022515</v>
       </c>
     </row>
     <row r="6">
@@ -24511,28 +24511,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.61762622272543</v>
+        <v>102.5279417014637</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.723522199174</v>
+        <v>140.283253049439</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.6292070980988</v>
+        <v>126.8948162672205</v>
       </c>
       <c r="AD6" t="n">
-        <v>92617.62622272543</v>
+        <v>102527.9417014637</v>
       </c>
       <c r="AE6" t="n">
-        <v>126723.522199174</v>
+        <v>140283.253049439</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.922291632792818e-06</v>
+        <v>1.216219332980913e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.0875</v>
       </c>
       <c r="AH6" t="n">
-        <v>114629.2070980988</v>
+        <v>126894.8162672205</v>
       </c>
     </row>
     <row r="7">
@@ -24617,28 +24617,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.02408464350341</v>
+        <v>99.93440012224173</v>
       </c>
       <c r="AB7" t="n">
-        <v>123.1749241915051</v>
+        <v>136.73465504177</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.419282303792</v>
+        <v>123.6848914729138</v>
       </c>
       <c r="AD7" t="n">
-        <v>90024.08464350342</v>
+        <v>99934.40012224173</v>
       </c>
       <c r="AE7" t="n">
-        <v>123174.9241915051</v>
+        <v>136734.65504177</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.0206143933813e-06</v>
+        <v>1.233494254154889e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.044444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>111419.282303792</v>
+        <v>123684.8914729138</v>
       </c>
     </row>
     <row r="8">
@@ -24723,28 +24723,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>90.33249306510517</v>
+        <v>100.2428085438435</v>
       </c>
       <c r="AB8" t="n">
-        <v>123.5969021999597</v>
+        <v>137.1566330502246</v>
       </c>
       <c r="AC8" t="n">
-        <v>111.8009873233697</v>
+        <v>124.0665964924915</v>
       </c>
       <c r="AD8" t="n">
-        <v>90332.49306510517</v>
+        <v>100242.8085438435</v>
       </c>
       <c r="AE8" t="n">
-        <v>123596.9021999597</v>
+        <v>137156.6330502246</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.012767036902406e-06</v>
+        <v>1.232115504577623e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.047222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>111800.9873233697</v>
+        <v>124066.5964924915</v>
       </c>
     </row>
   </sheetData>
@@ -25020,28 +25020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.4651606602459</v>
+        <v>387.4114468953365</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.0489177794792</v>
+        <v>530.0734330289879</v>
       </c>
       <c r="AC2" t="n">
-        <v>428.8063543984396</v>
+        <v>479.4839685434364</v>
       </c>
       <c r="AD2" t="n">
-        <v>346465.1606602459</v>
+        <v>387411.4468953365</v>
       </c>
       <c r="AE2" t="n">
-        <v>474048.9177794792</v>
+        <v>530073.4330289878</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984009680098946e-06</v>
+        <v>5.102324007782186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.901388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>428806.3543984396</v>
+        <v>479483.9685434364</v>
       </c>
     </row>
     <row r="3">
@@ -25126,28 +25126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.5382869633667</v>
+        <v>177.968849162177</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.5508343218889</v>
+        <v>243.5048308550785</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.9789652217656</v>
+        <v>220.265071559517</v>
       </c>
       <c r="AD3" t="n">
-        <v>157538.2869633668</v>
+        <v>177968.849162177</v>
       </c>
       <c r="AE3" t="n">
-        <v>215550.8343218889</v>
+        <v>243504.8308550785</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.046349587701243e-06</v>
+        <v>8.628695417682431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.080555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>194978.9652217656</v>
+        <v>220265.071559517</v>
       </c>
     </row>
     <row r="4">
@@ -25232,28 +25232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.3824313089279</v>
+        <v>144.8982448537588</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.1855298823916</v>
+        <v>198.2561710682303</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.9432617673547</v>
+        <v>179.3348803558183</v>
       </c>
       <c r="AD4" t="n">
-        <v>124382.4313089279</v>
+        <v>144898.2448537588</v>
       </c>
       <c r="AE4" t="n">
-        <v>170185.5298823916</v>
+        <v>198256.1710682303</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.762808458470839e-06</v>
+        <v>9.853760242805588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.573611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>153943.2617673547</v>
+        <v>179334.8803558183</v>
       </c>
     </row>
     <row r="5">
@@ -25338,28 +25338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.1108261315096</v>
+        <v>134.4560474757482</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.1314665274163</v>
+        <v>183.9686959384081</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.230498493972</v>
+        <v>166.4109817997846</v>
       </c>
       <c r="AD5" t="n">
-        <v>114110.8261315096</v>
+        <v>134456.0474757482</v>
       </c>
       <c r="AE5" t="n">
-        <v>156131.4665274163</v>
+        <v>183968.6959384081</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.161368360091011e-06</v>
+        <v>1.053525325810589e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.343055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>141230.498493972</v>
+        <v>166410.9817997846</v>
       </c>
     </row>
     <row r="6">
@@ -25444,28 +25444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.8246850103733</v>
+        <v>119.0826812913397</v>
       </c>
       <c r="AB6" t="n">
-        <v>148.8987350373939</v>
+        <v>162.9341780998616</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.6880487461527</v>
+        <v>147.383968821611</v>
       </c>
       <c r="AD6" t="n">
-        <v>108824.6850103733</v>
+        <v>119082.6812913397</v>
       </c>
       <c r="AE6" t="n">
-        <v>148898.7350373939</v>
+        <v>162934.1780998616</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.371472296324562e-06</v>
+        <v>1.08945075745793e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.231944444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>134688.0487461527</v>
+        <v>147383.968821611</v>
       </c>
     </row>
     <row r="7">
@@ -25550,28 +25550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.3660359684532</v>
+        <v>114.6240322494197</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.7982147165287</v>
+        <v>156.8336577789964</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.1697535225749</v>
+        <v>141.8656735980333</v>
       </c>
       <c r="AD7" t="n">
-        <v>104366.0359684532</v>
+        <v>114624.0322494197</v>
       </c>
       <c r="AE7" t="n">
-        <v>142798.2147165287</v>
+        <v>156833.6577789965</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.536945826907936e-06</v>
+        <v>1.117744887111022e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="AH7" t="n">
-        <v>129169.7535225749</v>
+        <v>141865.6735980333</v>
       </c>
     </row>
     <row r="8">
@@ -25656,28 +25656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.097302114699</v>
+        <v>111.3552983956655</v>
       </c>
       <c r="AB8" t="n">
-        <v>138.3257888514644</v>
+        <v>152.3612319139321</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.1241697049817</v>
+        <v>137.8200897804401</v>
       </c>
       <c r="AD8" t="n">
-        <v>101097.302114699</v>
+        <v>111355.2983956655</v>
       </c>
       <c r="AE8" t="n">
-        <v>138325.7888514644</v>
+        <v>152361.2319139321</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.654823476382652e-06</v>
+        <v>1.137900651514435e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.094444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>125124.1697049817</v>
+        <v>137820.0897804401</v>
       </c>
     </row>
     <row r="9">
@@ -25762,28 +25762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>97.99961163306213</v>
+        <v>108.2576079140286</v>
       </c>
       <c r="AB9" t="n">
-        <v>134.0873920740319</v>
+        <v>148.1228351364996</v>
       </c>
       <c r="AC9" t="n">
-        <v>121.2902795673588</v>
+        <v>133.9861996428172</v>
       </c>
       <c r="AD9" t="n">
-        <v>97999.61163306213</v>
+        <v>108257.6079140286</v>
       </c>
       <c r="AE9" t="n">
-        <v>134087.3920740319</v>
+        <v>148122.8351364996</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.757280653473254e-06</v>
+        <v>1.155419686989603e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.047222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>121290.2795673588</v>
+        <v>133986.1996428172</v>
       </c>
     </row>
     <row r="10">
@@ -25868,28 +25868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>97.31071567456432</v>
+        <v>107.5687119555308</v>
       </c>
       <c r="AB10" t="n">
-        <v>133.1448142316709</v>
+        <v>147.1802572941387</v>
       </c>
       <c r="AC10" t="n">
-        <v>120.4376600313562</v>
+        <v>133.1335801068145</v>
       </c>
       <c r="AD10" t="n">
-        <v>97310.71567456432</v>
+        <v>107568.7119555308</v>
       </c>
       <c r="AE10" t="n">
-        <v>133144.8142316709</v>
+        <v>147180.2572941387</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.775814875088776e-06</v>
+        <v>1.158588832336051e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.038888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>120437.6600313562</v>
+        <v>133133.5801068145</v>
       </c>
     </row>
   </sheetData>
@@ -26165,28 +26165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.39266227735249</v>
+        <v>80.66851921084677</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.10488133160651</v>
+        <v>110.3742268281334</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.69627511331672</v>
+        <v>99.84026553088488</v>
       </c>
       <c r="AD2" t="n">
-        <v>64392.66227735249</v>
+        <v>80668.51921084677</v>
       </c>
       <c r="AE2" t="n">
-        <v>88104.88133160651</v>
+        <v>110374.2268281334</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.727561610526832e-06</v>
+        <v>1.442026318206542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79696.27511331672</v>
+        <v>99840.26553088488</v>
       </c>
     </row>
   </sheetData>
@@ -26462,28 +26462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.2106116245693</v>
+        <v>154.8818482287072</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.3693680127311</v>
+        <v>211.9161776513238</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.5825371006993</v>
+        <v>191.6911950825654</v>
       </c>
       <c r="AD2" t="n">
-        <v>136210.6116245693</v>
+        <v>154881.8482287072</v>
       </c>
       <c r="AE2" t="n">
-        <v>186369.3680127311</v>
+        <v>211916.1776513238</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.211548051103288e-06</v>
+        <v>9.601925687610681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.351388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>168582.5371006993</v>
+        <v>191691.1950825654</v>
       </c>
     </row>
     <row r="3">
@@ -26568,28 +26568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.52700644041334</v>
+        <v>109.1129021899797</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.8630439813807</v>
+        <v>149.2930864977757</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.0417289067043</v>
+        <v>135.0447638566316</v>
       </c>
       <c r="AD3" t="n">
-        <v>90527.00644041334</v>
+        <v>109112.9021899797</v>
       </c>
       <c r="AE3" t="n">
-        <v>123863.0439813807</v>
+        <v>149293.0864977757</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.774000008017378e-06</v>
+        <v>1.248063800756616e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.348611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>112041.7289067043</v>
+        <v>135044.7638566316</v>
       </c>
     </row>
     <row r="4">
@@ -26674,28 +26674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.54486469319527</v>
+        <v>90.92319817682557</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.5732813787161</v>
+        <v>124.4051309938854</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.924883998044</v>
+        <v>112.5320798955597</v>
       </c>
       <c r="AD4" t="n">
-        <v>81544.86469319527</v>
+        <v>90923.19817682556</v>
       </c>
       <c r="AE4" t="n">
-        <v>111573.2813787161</v>
+        <v>124405.1309938854</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.282678712635625e-06</v>
+        <v>1.341784420286939e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.113888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>100924.883998044</v>
+        <v>112532.0798955597</v>
       </c>
     </row>
     <row r="5">
@@ -26780,28 +26780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.69852636763707</v>
+        <v>90.07685985126737</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.4152839438762</v>
+        <v>123.2471335590455</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.8774042131252</v>
+        <v>111.4846001106409</v>
       </c>
       <c r="AD5" t="n">
-        <v>80698.52636763707</v>
+        <v>90076.85985126738</v>
       </c>
       <c r="AE5" t="n">
-        <v>110415.2839438762</v>
+        <v>123247.1335590455</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.340976721479514e-06</v>
+        <v>1.352525435109515e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.088888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>99877.40421312521</v>
+        <v>111484.6001106409</v>
       </c>
     </row>
   </sheetData>
@@ -27077,28 +27077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.2766722262468</v>
+        <v>209.7042902166023</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.344937354162</v>
+        <v>286.9266613745688</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.4979819295712</v>
+        <v>259.5427835171628</v>
       </c>
       <c r="AD2" t="n">
-        <v>190276.6722262468</v>
+        <v>209704.2902166023</v>
       </c>
       <c r="AE2" t="n">
-        <v>260344.937354162</v>
+        <v>286926.6613745688</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.339187965009275e-06</v>
+        <v>7.751642633012294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.031944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>235497.9819295713</v>
+        <v>259542.7835171628</v>
       </c>
     </row>
     <row r="3">
@@ -27183,28 +27183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.7829225447844</v>
+        <v>128.2104510265889</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.8415937895452</v>
+        <v>175.4231953404036</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.6363609788005</v>
+        <v>158.6810517851654</v>
       </c>
       <c r="AD3" t="n">
-        <v>108782.9225447844</v>
+        <v>128210.4510265889</v>
       </c>
       <c r="AE3" t="n">
-        <v>148841.5937895452</v>
+        <v>175423.1953404036</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.086560516301463e-06</v>
+        <v>1.087319617565147e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.587499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>134636.3609788005</v>
+        <v>158681.0517851654</v>
       </c>
     </row>
     <row r="4">
@@ -27289,28 +27289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.96538192028555</v>
+        <v>105.6792356697388</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.3040692371312</v>
+        <v>144.5949924821088</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.7725931555929</v>
+        <v>130.795049340002</v>
       </c>
       <c r="AD4" t="n">
-        <v>95965.38192028555</v>
+        <v>105679.2356697388</v>
       </c>
       <c r="AE4" t="n">
-        <v>131304.0692371312</v>
+        <v>144594.9924821088</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.694697733180911e-06</v>
+        <v>1.195958893279816e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.261111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>118772.5931555929</v>
+        <v>130795.049340002</v>
       </c>
     </row>
     <row r="5">
@@ -27395,28 +27395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.36799757081054</v>
+        <v>99.08185132026384</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.2772369141283</v>
+        <v>135.5681601591058</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.6072690402558</v>
+        <v>122.6297252246649</v>
       </c>
       <c r="AD5" t="n">
-        <v>89367.99757081055</v>
+        <v>99081.85132026384</v>
       </c>
       <c r="AE5" t="n">
-        <v>122277.2369141283</v>
+        <v>135568.1601591058</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.013388048231231e-06</v>
+        <v>1.252890592316433e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.113888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>110607.2690402558</v>
+        <v>122629.7252246649</v>
       </c>
     </row>
     <row r="6">
@@ -27501,28 +27501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.36938369168976</v>
+        <v>96.08323744114305</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.1744011152095</v>
+        <v>131.4653243601871</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.8960021316183</v>
+        <v>118.9184583160273</v>
       </c>
       <c r="AD6" t="n">
-        <v>86369.38369168976</v>
+        <v>96083.23744114305</v>
       </c>
       <c r="AE6" t="n">
-        <v>118174.4011152095</v>
+        <v>131465.324360187</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.148599528716321e-06</v>
+        <v>1.277045136554959e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.054166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>106896.0021316183</v>
+        <v>118918.4583160273</v>
       </c>
     </row>
     <row r="7">
@@ -27607,28 +27607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.6351230037754</v>
+        <v>96.3489767532287</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.5379973655959</v>
+        <v>131.8289206105734</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.2248972661784</v>
+        <v>119.2473534505875</v>
       </c>
       <c r="AD7" t="n">
-        <v>86635.1230037754</v>
+        <v>96348.97675322869</v>
       </c>
       <c r="AE7" t="n">
-        <v>118537.9973655959</v>
+        <v>131828.9206105734</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.149542864626681e-06</v>
+        <v>1.277213656631041e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.054166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>107224.8972661785</v>
+        <v>119247.3534505875</v>
       </c>
     </row>
   </sheetData>
